--- a/results/metric_df/PA-IL_metrics.xlsx
+++ b/results/metric_df/PA-IL_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,32 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
@@ -504,43 +479,24 @@
       <c r="B2" t="n">
         <v>2.090549097748815</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.378505507952812</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.378505507952812</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Gal(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Gal(a1-?)']</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>2.378505507952812</v>
       </c>
       <c r="F2" t="n">
-        <v>1.777365120630793</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.455</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Gal(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Gal(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.5568992082145107</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -552,43 +508,24 @@
       <c r="B3" t="n">
         <v>1.99357709509991</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.42187151155289</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.42187151155289</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Gal(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Gal(a1-?)']</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>2.42187151155289</v>
       </c>
       <c r="F3" t="n">
-        <v>2.917820000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Gal(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Gal(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.7313890112283827</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -600,43 +537,24 @@
       <c r="B4" t="n">
         <v>3.413130976958792</v>
       </c>
-      <c r="C4" t="n">
-        <v>2.565067755178432</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.565067755178432</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Gal(a1-3)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Gal(a1-?)']</t>
+        </is>
       </c>
       <c r="E4" t="n">
         <v>2.565067755178432</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4752999999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.411</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['Gal(a1-3)']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['Gal(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>0.1985667364886857</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -648,43 +566,24 @@
       <c r="B5" t="n">
         <v>2.150492618060808</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.561983711449383</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.561983711449383</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Gal(a1-4)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Gal(a1-?)']</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>2.561983711449383</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5451333333333336</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="H5" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>['4C1']</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['Gal(a1-4)']</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>['Gal(a1-?)']</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>lipid/free</t>
-        </is>
+        <v>0.1708058283471475</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
